--- a/eBay/eBay(US)/menu.xlsx
+++ b/eBay/eBay(US)/menu.xlsx
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>324276749788</v>
+        <v>185140862971</v>
       </c>
     </row>
   </sheetData>
